--- a/wine_t.xlsx
+++ b/wine_t.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freeverc/PycharmProjects/WineClassification/WineClassification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8151E4-BF92-FE4F-AF0D-E4FC221E03F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC9FB53-5C74-1C42-84EE-0B3BCDE63899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1460" windowWidth="27440" windowHeight="15100" xr2:uid="{75401C8F-6F41-AD43-8A7A-B0E48319B80E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>甲醇</t>
   </si>
@@ -141,51 +141,6 @@
   </si>
   <si>
     <t>戊缩醛</t>
-  </si>
-  <si>
-    <t>异己酸乙酯</t>
-  </si>
-  <si>
-    <t>己酸</t>
-  </si>
-  <si>
-    <t>己酸丙酯</t>
-  </si>
-  <si>
-    <t>庚酸乙酯</t>
-  </si>
-  <si>
-    <t>己酸丁酯</t>
-  </si>
-  <si>
-    <t>辛酸乙酯</t>
-  </si>
-  <si>
-    <t>苯乙酸乙酯</t>
-  </si>
-  <si>
-    <t>己酸戊酯</t>
-  </si>
-  <si>
-    <t>苯乙基，二乙缩醛</t>
-  </si>
-  <si>
-    <t>苯丙酸乙酯</t>
-  </si>
-  <si>
-    <t>己酸己酯</t>
-  </si>
-  <si>
-    <t>葵酸乙酯</t>
-  </si>
-  <si>
-    <t>十四酸乙酯（棕榈酸乙酯）</t>
-  </si>
-  <si>
-    <t>十六酸乙酯</t>
-  </si>
-  <si>
-    <t>十八酸乙酯（一元+二元不饱和）</t>
   </si>
   <si>
     <t>编号</t>
@@ -238,18 +193,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -266,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -279,13 +228,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,17 +545,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC2B3B-C86B-434C-B1C1-EBF42D978DB6}">
-  <dimension ref="A1:AU11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -704,1483 +647,955 @@
       <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:31">
       <c r="A2" s="2">
         <v>197</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.74646138226869396</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.20618169517441101</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.133158825918165</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>2.02023869912041</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>14.224938386344901</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>4.9600617054557201</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>0.27861233647767603</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>2.1230216666773898</v>
       </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
         <v>0.13751791843015099</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>9.9079993161187305E-2</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>4.2299418919938701</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>3.1649573853219102</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>0.77458285345080302</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>0.11251807301724701</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>0.28097040880792101</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>1.16047430478911</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>2.6116779702248398</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <v>15.562297423422001</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <v>0.95445896779017103</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>7.4646216615707597E-2</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="4">
         <v>0.152339791365774</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="4">
         <v>0.26236894633737601</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="4">
         <v>1.52938913849697</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="4">
         <v>6.4283817261970799E-2</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="4">
         <v>0.18917598586005199</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="4">
         <v>0.213684328949346</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2" s="4">
         <v>1.36313680395639</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2" s="4">
         <v>5.3230809734058401E-2</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2" s="4">
         <v>0.84490219539866795</v>
       </c>
-      <c r="AF2" s="5">
-        <v>5.1657112378764997E-2</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>3.7921766235588401</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>32.168577407774698</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>6.2345155915012301E-2</v>
-      </c>
-      <c r="AJ2" s="5">
-        <v>0.62456265640515696</v>
-      </c>
-      <c r="AK2" s="5">
-        <v>0.191495175454161</v>
-      </c>
-      <c r="AL2" s="5">
-        <v>0.45821290398856701</v>
-      </c>
-      <c r="AM2" s="5">
-        <v>0.22112379587872599</v>
-      </c>
-      <c r="AN2" s="5">
-        <v>3.12131686161971E-2</v>
-      </c>
-      <c r="AO2" s="5">
-        <v>0.13329961244576699</v>
-      </c>
-      <c r="AP2" s="5">
-        <v>4.5024026799238601E-2</v>
-      </c>
-      <c r="AQ2" s="5">
-        <v>0.13399495801108699</v>
-      </c>
-      <c r="AR2" s="5">
-        <v>2.89719192383447E-2</v>
-      </c>
-      <c r="AS2" s="5">
-        <v>9.1334204274877498E-2</v>
-      </c>
-      <c r="AT2" s="5">
-        <v>1.58497924515717</v>
-      </c>
-      <c r="AU2" s="5">
-        <v>1.7575351780242401</v>
-      </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:31">
       <c r="A3" s="2">
         <v>198</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.439676543846788</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>8.4376276154112695E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.134939728012758</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>2.4061741894011401</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>13.3058777029647</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>3.65453152064836</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.21902571016595501</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>3.8850693021190299</v>
       </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
         <v>0.24825486980443401</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>0.19552629740201</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>1.9723478073959</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>1.8383706827402999</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>0.43132597760720198</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>5.0398977477208701E-2</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>0.38055450843094002</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>1.1387605297135901</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>6.05943288607582</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="4">
         <v>9.7448163899739093</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="4">
         <v>0.32726446715442298</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="4">
         <v>0.104342163962256</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="4">
         <v>0.17671545418177301</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="4">
         <v>0.12962408629108599</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="4">
         <v>2.1565377316859</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="4">
         <v>7.5433827427843506E-2</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="4">
         <v>0.235595619028722</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="4">
         <v>9.8109758810545802E-2</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3" s="4">
         <v>3.6397303592405201</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" s="4">
         <v>5.3699196999383303E-2</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AE3" s="4">
         <v>0.81108431399181702</v>
       </c>
-      <c r="AF3" s="5">
-        <v>6.9998307792431505E-2</v>
-      </c>
-      <c r="AG3" s="5">
-        <v>3.9472979130271399</v>
-      </c>
-      <c r="AH3" s="6">
-        <v>36.262546750717</v>
-      </c>
-      <c r="AI3" s="5">
-        <v>0.25816470511790202</v>
-      </c>
-      <c r="AJ3" s="5">
-        <v>1.5608270043929</v>
-      </c>
-      <c r="AK3" s="5">
-        <v>0.52353300429295202</v>
-      </c>
-      <c r="AL3" s="5">
-        <v>0.89321668432847001</v>
-      </c>
-      <c r="AM3" s="5">
-        <v>0.34476144243851797</v>
-      </c>
-      <c r="AN3" s="5">
-        <v>7.0425863893355298E-2</v>
-      </c>
-      <c r="AO3" s="5">
-        <v>0.10214109966214401</v>
-      </c>
-      <c r="AP3" s="5">
-        <v>6.6082754104181199E-2</v>
-      </c>
-      <c r="AQ3" s="5">
-        <v>0.30161128291087103</v>
-      </c>
-      <c r="AR3" s="5">
-        <v>5.0636643991530901E-2</v>
-      </c>
-      <c r="AS3" s="5">
-        <v>5.8136269565695002E-2</v>
-      </c>
-      <c r="AT3" s="5">
-        <v>0.84772152078204699</v>
-      </c>
-      <c r="AU3" s="5">
-        <v>0.48101706040340297</v>
-      </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:31">
       <c r="A4" s="2">
         <v>199</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.69248086849516199</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.15687446316853701</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.14879752556713599</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1.6714404714717099</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>13.0569008078004</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>3.0765795638373699</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.16108594093687401</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>3.11754843371688</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <v>0.14091122220681501</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>0.115601512891347</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>6.7893684208337302</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>3.8436349313561902</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>0.89741043239866403</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>6.7248709115864905E-2</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>0.22696135602342499</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>0.78894633581146101</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <v>3.89724706670262</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="4">
         <v>8.4629356502000093</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="4">
         <v>0.19047098343396901</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <v>3.8435572287072402E-2</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="4">
         <v>0.220206466139</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="4">
         <v>0.14545164385331499</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="4">
         <v>1.9723567691580199</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="4">
         <v>4.8577649636496301E-2</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="4">
         <v>0.12155417105685699</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="4">
         <v>0.145640495049603</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4" s="4">
         <v>1.8073556038237899</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AD4" s="4">
         <v>7.7466157384740497E-2</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4" s="4">
         <v>1.1298822520171099</v>
       </c>
-      <c r="AF4" s="5">
-        <v>6.0787985751919398E-2</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>4.1390679878398204</v>
-      </c>
-      <c r="AH4" s="6">
-        <v>38.212024162278603</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>0.18548180465227701</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>0.91761473144461403</v>
-      </c>
-      <c r="AK4" s="5">
-        <v>0.33246731087048398</v>
-      </c>
-      <c r="AL4" s="5">
-        <v>0.99153313475333704</v>
-      </c>
-      <c r="AM4" s="5">
-        <v>0.14719844753890801</v>
-      </c>
-      <c r="AN4" s="5">
-        <v>4.5048907957720902E-2</v>
-      </c>
-      <c r="AO4" s="5">
-        <v>2.9541385989546299E-2</v>
-      </c>
-      <c r="AP4" s="5">
-        <v>3.1180472534650401E-2</v>
-      </c>
-      <c r="AQ4" s="5">
-        <v>0.29109813936305401</v>
-      </c>
-      <c r="AR4" s="5">
-        <v>5.1207714943583102E-2</v>
-      </c>
-      <c r="AS4" s="5">
-        <v>2.6178380498054099E-2</v>
-      </c>
-      <c r="AT4" s="5">
-        <v>0.86357197181206302</v>
-      </c>
-      <c r="AU4" s="5">
-        <v>0.35282810314825402</v>
-      </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:31">
       <c r="A5" s="2">
         <v>200</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.55184077705135104</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.21468191986875401</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>5.5205667178816503E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1.10614447346267</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>10.380675889020999</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>3.0150758621953</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.14884575792819199</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>2.1970370018187499</v>
       </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
         <v>0.203660184138658</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>0.22822067898256901</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>4.2627777985328903</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>2.7028158462045901</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>0.72773780244933295</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>0.147057975844188</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>0.184295100739928</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>1.6229623924066401</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <v>8.2917913074432903</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <v>9.0050307055131995</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <v>0.25129136650773198</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <v>0.145165609503905</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <v>9.1384304603841296E-2</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="4">
         <v>8.2938204771749804E-2</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="4">
         <v>1.59780576958127</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="4">
         <v>5.0824220946179402E-2</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="4">
         <v>1.04942433693276</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="4">
         <v>6.6850305751048E-2</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5" s="4">
         <v>2.8323447802354602</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AD5" s="4">
         <v>5.4414573972782397E-2</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5" s="4">
         <v>0.61061526918182196</v>
       </c>
-      <c r="AF5" s="5">
-        <v>5.9671989319450398E-2</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>6.1866140599887096</v>
-      </c>
-      <c r="AH5" s="6">
-        <v>36.554314225759697</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>0.26685970327527497</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>1.16217718221699</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>0.42160332790046501</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>1.16225803925794</v>
-      </c>
-      <c r="AM5" s="5">
-        <v>0.40915289405740202</v>
-      </c>
-      <c r="AN5" s="5">
-        <v>7.2800113306926498E-2</v>
-      </c>
-      <c r="AO5" s="5">
-        <v>4.61624875799879E-2</v>
-      </c>
-      <c r="AP5" s="5">
-        <v>6.4714336980944503E-2</v>
-      </c>
-      <c r="AQ5" s="5">
-        <v>0.45557336709533203</v>
-      </c>
-      <c r="AR5" s="5">
-        <v>5.2017031230135499E-2</v>
-      </c>
-      <c r="AS5" s="5">
-        <v>3.34622102212737E-2</v>
-      </c>
-      <c r="AT5" s="5">
-        <v>0.797757883483036</v>
-      </c>
-      <c r="AU5" s="5">
-        <v>0.28186036711469598</v>
-      </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:31">
       <c r="A6" s="2">
         <v>390</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.80618131059437104</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.40372840998480303</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.33951649990271399</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.72442146521794104</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>5.3703119489970303</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>1.65163779546176</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.14382530745764999</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0.27061587635034401</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
         <v>0.13879553722990101</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>6.8257638292467302</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>1.1772546564320701</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>0.31503178217078198</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <v>3.7435221179001103E-2</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>1.5191689159621701E-2</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <v>0.51760744685125604</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <v>2.3661604915031602</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <v>11.891582466434601</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="4">
         <v>0.20049802411770601</v>
       </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
         <v>0.21870248271053599</v>
       </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="5">
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
         <v>1.17534007855564</v>
       </c>
-      <c r="AD6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5">
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
         <v>0.702097909603693</v>
       </c>
-      <c r="AF6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>10.576309987118201</v>
-      </c>
-      <c r="AH6" s="6">
-        <v>51.434281903027902</v>
-      </c>
-      <c r="AI6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="5">
-        <v>0.31254722628584902</v>
-      </c>
-      <c r="AK6" s="5">
-        <v>1.1821635526337</v>
-      </c>
-      <c r="AL6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="5">
-        <v>0.67932670739393497</v>
-      </c>
-      <c r="AU6" s="5">
-        <v>0.52367039437909102</v>
-      </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:31">
       <c r="A7" s="2">
         <v>391</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.80426793539154395</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.17073204047549401</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>6.1018853021935299E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1.07264932873901</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>12.327400154407901</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>2.8646943001801999</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>3.0423781033292401E-2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0.44216339361796198</v>
       </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
         <v>9.3282456686443804E-2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>7.5339571389659996</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>2.6146209640067202</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>0.56912151267668198</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>3.2544230475098399E-2</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>4.9261400600085402E-2</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="4">
         <v>0.67532129791112405</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <v>3.1896866368722701</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <v>9.5197474748737392</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="4">
         <v>0.28754815653156102</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
         <v>5.4288675255286703E-2</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <v>2.1965252623234701E-2</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="4">
         <v>0.135012752238338</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="4">
         <v>0.49864113536214699</v>
       </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
         <v>6.5683716192705494E-2</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="4">
         <v>0.13395392766890701</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AC7" s="4">
         <v>1.3171407926482701</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AD7" s="4">
         <v>5.0179191125744801E-2</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AE7" s="4">
         <v>0.147784152135671</v>
       </c>
-      <c r="AF7" s="5">
-        <v>3.7350786936280501E-2</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>6.2226889793960503</v>
-      </c>
-      <c r="AH7" s="6">
-        <v>48.321908620649701</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>7.0960045781780501E-2</v>
-      </c>
-      <c r="AJ7" s="5">
-        <v>0.15341626570698799</v>
-      </c>
-      <c r="AK7" s="5">
-        <v>2.44897746923964E-2</v>
-      </c>
-      <c r="AL7" s="5">
-        <v>0.121909103444602</v>
-      </c>
-      <c r="AM7" s="5">
-        <v>1.7671401568565601E-2</v>
-      </c>
-      <c r="AN7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="5">
-        <v>1.1262384974571301E-2</v>
-      </c>
-      <c r="AP7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="5">
-        <v>2.93159137002886E-2</v>
-      </c>
-      <c r="AR7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="5">
-        <v>0.14444115079352701</v>
-      </c>
-      <c r="AU7" s="5">
-        <v>8.1494920637916204E-2</v>
-      </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:31">
       <c r="A8" s="2">
         <v>393</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.53441751409370297</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.47533744593379501</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1.5437026602981E-2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.66165843681392</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>9.1759069403732401</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>3.2594989832841899</v>
       </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>1.1942324030834599</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>4.7739839532973199E-2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>4.8088228598110898E-2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>0.45254704970614201</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>11.664527105361699</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>3.85814346832804</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>0.94353538466917297</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <v>0.15825814470770599</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>0.23889677330993001</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="4">
         <v>1.0127534184992599</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <v>5.4884767539834396</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="4">
         <v>7.8623810166000903</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="4">
         <v>1.0271411079502699</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="4">
         <v>0.199159600778298</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="4">
         <v>0.112669262447732</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="4">
         <v>0.13005494979288201</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="4">
         <v>0.94360603982678803</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="4">
         <v>1.52197194833494E-2</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="4">
         <v>6.88459943684228E-2</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="4">
         <v>0.100571582184405</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AC8" s="4">
         <v>1.39284909887525</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AD8" s="4">
         <v>2.8796030349072198E-2</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AE8" s="4">
         <v>0.73614361367011205</v>
       </c>
-      <c r="AF8" s="5">
-        <v>3.8432401810181101E-2</v>
-      </c>
-      <c r="AG8" s="5">
-        <v>7.7123493382137296</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>37.2755407486016</v>
-      </c>
-      <c r="AI8" s="5">
-        <v>0.32548760505317498</v>
-      </c>
-      <c r="AJ8" s="5">
-        <v>0.65024324980727799</v>
-      </c>
-      <c r="AK8" s="5">
-        <v>8.3664481266592094E-2</v>
-      </c>
-      <c r="AL8" s="5">
-        <v>0.79107046912997803</v>
-      </c>
-      <c r="AM8" s="5">
-        <v>0.11218491820707099</v>
-      </c>
-      <c r="AN8" s="5">
-        <v>1.5080827179380999E-2</v>
-      </c>
-      <c r="AO8" s="5">
-        <v>3.71636530236037E-2</v>
-      </c>
-      <c r="AP8" s="5">
-        <v>3.4453787696206099E-2</v>
-      </c>
-      <c r="AQ8" s="5">
-        <v>0.103913566794507</v>
-      </c>
-      <c r="AR8" s="5">
-        <v>5.39783490945724E-2</v>
-      </c>
-      <c r="AS8" s="5">
-        <v>4.49657032726778E-2</v>
-      </c>
-      <c r="AT8" s="5">
-        <v>0.67652030245126105</v>
-      </c>
-      <c r="AU8" s="5">
-        <v>0.17989914388601699</v>
-      </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:31">
       <c r="A9" s="2">
         <v>394</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.52524299922806705</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.32821718952353601</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.134448866717013</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>1.6819873767283899</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>5.9185166878818203</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>2.1090957548740099</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>6.7679416949325499E-2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>1.1666821209273599</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>1.8242418282881201E-2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>5.0472315384302802E-2</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>0.13663981133644801</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>9.6069093962958796</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>4.2118057429555202</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <v>1.1319743990701701</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <v>7.2722286271860795E-2</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <v>0.16523014470859801</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <v>0.47324548314426101</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <v>2.41453245538374</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="4">
         <v>9.9329465488726001</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="4">
         <v>0.61896866611143997</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="4">
         <v>9.6500160031467198E-3</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="4">
         <v>8.2887542729736294E-2</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="4">
         <v>8.2836122076951305E-2</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="4">
         <v>0.565627455944539</v>
       </c>
-      <c r="Z9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="5">
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
         <v>0.90104042570718301</v>
       </c>
-      <c r="AC9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="5">
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
         <v>0.517216437280407</v>
       </c>
-      <c r="AF9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>5.0483271528762499</v>
-      </c>
-      <c r="AH9" s="6">
-        <v>49.359331116219998</v>
-      </c>
-      <c r="AI9" s="5">
-        <v>0.29150716886649902</v>
-      </c>
-      <c r="AJ9" s="5">
-        <v>0.58403698178368502</v>
-      </c>
-      <c r="AK9" s="5">
-        <v>6.5478921532946793E-2</v>
-      </c>
-      <c r="AL9" s="5">
-        <v>0.752460613526999</v>
-      </c>
-      <c r="AM9" s="5">
-        <v>4.4033162281041198E-2</v>
-      </c>
-      <c r="AN9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="5">
-        <v>0.63376033421341904</v>
-      </c>
-      <c r="AU9" s="5">
-        <v>0.29624646830998502</v>
-      </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:31">
       <c r="A10" s="2">
         <v>395</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.79557740257265097</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.32980585619550901</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>6.3970955960748505E-2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1.09569252038789</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>11.554245405503501</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>2.11593103437934</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>5.1229503179365803E-2</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>0.196906202422579</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>4.6900505503062601E-3</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>1.2065337615465199E-3</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>5.7021498950385101E-2</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>10.7580619137266</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>3.9386491919208799</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <v>0.83085599144276301</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>2.0564880861046499E-2</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>7.5983364424635796E-2</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <v>0.76206204211962802</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <v>4.4546839597353296</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="4">
         <v>7.8430613347264799</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="4">
         <v>0.224616794131173</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="4">
         <v>3.50672783523708E-2</v>
       </c>
-      <c r="W10" s="5">
-        <v>0</v>
-      </c>
-      <c r="X10" s="5">
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
         <v>0.18010600338737201</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="4">
         <v>0.540687232756769</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z10" s="4">
         <v>4.4753956062813603E-3</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA10" s="4">
         <v>5.56767037103904E-3</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB10" s="4">
         <v>0.18243049657275201</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AC10" s="4">
         <v>0.49157993311873899</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AD10" s="4">
         <v>1.73710843251083E-2</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AE10" s="4">
         <v>7.5569264509453393E-2</v>
       </c>
-      <c r="AF10" s="5">
-        <v>3.9243691120201499E-2</v>
-      </c>
-      <c r="AG10" s="5">
-        <v>8.1854807754345504</v>
-      </c>
-      <c r="AH10" s="6">
-        <v>44.6990263608768</v>
-      </c>
-      <c r="AI10" s="5">
-        <v>1.6577602231896301E-2</v>
-      </c>
-      <c r="AJ10" s="5">
-        <v>0.19835117836921401</v>
-      </c>
-      <c r="AK10" s="5">
-        <v>5.5815888551403103E-3</v>
-      </c>
-      <c r="AL10" s="5">
-        <v>8.70304648694432E-2</v>
-      </c>
-      <c r="AM10" s="5">
-        <v>1.7025660885393801E-2</v>
-      </c>
-      <c r="AN10" s="5">
-        <v>6.3524305058798303E-3</v>
-      </c>
-      <c r="AO10" s="5">
-        <v>6.0022401985338697E-3</v>
-      </c>
-      <c r="AP10" s="5">
-        <v>2.3647923236129399E-3</v>
-      </c>
-      <c r="AQ10" s="5">
-        <v>7.6334910147685901E-3</v>
-      </c>
-      <c r="AR10" s="5">
-        <v>1.1448780419504E-2</v>
-      </c>
-      <c r="AS10" s="5">
-        <v>6.02095197964146E-3</v>
-      </c>
-      <c r="AT10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:31">
       <c r="A11" s="2">
         <v>400</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>0.99407577225626498</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>1.08911811395873</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>8.8875188160609395E-2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>5.0439615957747197</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>22.642686429413601</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>9.8856179310118399</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>1.3828113118520301E-2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>1.1572390094602201</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>1.9757065349125899E-2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>1.33088744062903E-2</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>1.5494080379972901</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>14.9901848115153</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>4.1916852263023099</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <v>1.1343591580952199</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="4">
         <v>0.43421705740836902</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="4">
         <v>0.116736757975981</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4">
         <v>0.69883301790097296</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="4">
         <v>4.5673567685351797</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="4">
         <v>10.0345507411533</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="4">
         <v>1.39296267253879</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="4">
         <v>0.20444680151896599</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="4">
         <v>5.2236032159613602E-2</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="4">
         <v>0.25515938666188898</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="4">
         <v>1.2352861199484499</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="Z11" s="4">
         <v>1.8402699718871599E-2</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="4">
         <v>0.70597517842504498</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11" s="4">
         <v>0.282454145294951</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AC11" s="4">
         <v>4.4558044173185998</v>
       </c>
-      <c r="AD11" s="5">
+      <c r="AD11" s="4">
         <v>1.0306841696518401E-2</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AE11" s="4">
         <v>0.34470971157381203</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>9.7622718234615893E-2</v>
-      </c>
-      <c r="AG11" s="5">
-        <v>2.1183107001041099</v>
-      </c>
-      <c r="AH11" s="6">
-        <v>8.7651044325631293</v>
-      </c>
-      <c r="AI11" s="5">
-        <v>4.75549698170235E-2</v>
-      </c>
-      <c r="AJ11" s="5">
-        <v>0.244651637815442</v>
-      </c>
-      <c r="AK11" s="5">
-        <v>7.2099557839061896E-3</v>
-      </c>
-      <c r="AL11" s="5">
-        <v>0.122757507941075</v>
-      </c>
-      <c r="AM11" s="5">
-        <v>4.4332654818747402E-2</v>
-      </c>
-      <c r="AN11" s="5">
-        <v>2.0490548196574199E-2</v>
-      </c>
-      <c r="AO11" s="5">
-        <v>2.8813584413434901E-2</v>
-      </c>
-      <c r="AP11" s="5">
-        <v>1.1445399922589901E-2</v>
-      </c>
-      <c r="AQ11" s="5">
-        <v>4.7347063098963898E-3</v>
-      </c>
-      <c r="AR11" s="5">
-        <v>1.92147451667142E-2</v>
-      </c>
-      <c r="AS11" s="5">
-        <v>1.9288509143896199E-2</v>
-      </c>
-      <c r="AT11" s="5">
-        <v>0.66388408586490899</v>
-      </c>
-      <c r="AU11" s="5">
-        <v>0.150052410161191</v>
       </c>
     </row>
   </sheetData>
